--- a/doc/BBS表设计V1.4.xlsx
+++ b/doc/BBS表设计V1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2740,7 +2740,7 @@
         <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -2816,6 +2816,7 @@
     <hyperlink ref="E12" location="首页!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/BBS表设计V1.4.xlsx
+++ b/doc/BBS表设计V1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640"/>
+    <workbookView xWindow="135" yWindow="1095" windowWidth="18225" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="210">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,6 +832,22 @@
   </si>
   <si>
     <t>0-启用  1-禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMG_PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +972,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1031,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,6 +1128,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1413,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2094,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2180,127 +2213,144 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2310,9 +2360,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" location="首页!A1" display="返回"/>
+    <hyperlink ref="E17" location="首页!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
